--- a/Requested Information - Revised (1).xlsx
+++ b/Requested Information - Revised (1).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcb0168e\Desktop\mcb-rtsis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCB94B7-CA15-4E06-8C29-8330DAC9A0A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403C7771-9229-45BD-8394-C303BF04A88B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="444" yWindow="1404" windowWidth="22236" windowHeight="10164" firstSheet="1" activeTab="2" xr2:uid="{8D4B133A-B001-4CC1-8B72-C312721708E2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8D4B133A-B001-4CC1-8B72-C312721708E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Mapping Phase-1" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="1311">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2416" uniqueCount="1312">
   <si>
     <t>RTSIS API SERVICES</t>
   </si>
@@ -3976,6 +3976,9 @@
   </si>
   <si>
     <t>Deposits</t>
+  </si>
+  <si>
+    <t>agent transaction data</t>
   </si>
 </sst>
 </file>
@@ -4110,7 +4113,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4127,12 +4130,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4450,7 +4454,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C0ACADB-F746-499A-BD1B-1518D2CD862C}">
   <dimension ref="A1:J965"/>
   <sheetViews>
-    <sheetView topLeftCell="A979" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A934" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="C788" sqref="C788"/>
     </sheetView>
   </sheetViews>
@@ -9574,10 +9578,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D325"/>
+  <dimension ref="A1:D326"/>
   <sheetViews>
-    <sheetView topLeftCell="A174" workbookViewId="0">
-      <selection activeCell="C310" sqref="C310"/>
+    <sheetView tabSelected="1" topLeftCell="A307" workbookViewId="0">
+      <selection activeCell="D319" sqref="D319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4"/>
@@ -9655,8 +9659,8 @@
       </c>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="12"/>
+      <c r="B7" s="12"/>
       <c r="C7" s="10">
         <v>144000052</v>
       </c>
@@ -9665,8 +9669,8 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="12"/>
+      <c r="B8" s="12"/>
       <c r="C8" s="10">
         <v>170150001</v>
       </c>
@@ -9675,8 +9679,8 @@
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="12"/>
+      <c r="B9" s="12"/>
       <c r="C9" s="10">
         <v>170150002</v>
       </c>
@@ -9685,8 +9689,8 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="12"/>
+      <c r="B10" s="12"/>
       <c r="C10" s="10">
         <v>171020001</v>
       </c>
@@ -9695,8 +9699,8 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="12"/>
+      <c r="B11" s="12"/>
       <c r="C11" s="10">
         <v>171030001</v>
       </c>
@@ -9705,8 +9709,8 @@
       </c>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="12"/>
+      <c r="B12" s="12"/>
       <c r="C12" s="10">
         <v>171060001</v>
       </c>
@@ -9715,8 +9719,8 @@
       </c>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+      <c r="A13" s="12"/>
+      <c r="B13" s="12"/>
       <c r="C13" s="10">
         <v>171080001</v>
       </c>
@@ -9725,8 +9729,8 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="13"/>
-      <c r="B14" s="13"/>
+      <c r="A14" s="12"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="10">
         <v>171090001</v>
       </c>
@@ -9735,8 +9739,8 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
       <c r="C15" s="10">
         <v>171120001</v>
       </c>
@@ -9775,8 +9779,8 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
       <c r="C19" s="10">
         <v>101010001</v>
       </c>
@@ -9785,8 +9789,8 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
       <c r="C20" s="10">
         <v>101240001</v>
       </c>
@@ -9795,8 +9799,8 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
       <c r="C21" s="10">
         <v>112020005</v>
       </c>
@@ -9805,8 +9809,8 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
       <c r="C22" s="10">
         <v>143000001</v>
       </c>
@@ -9815,8 +9819,8 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
       <c r="C23" s="10">
         <v>144000001</v>
       </c>
@@ -9825,8 +9829,8 @@
       </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
       <c r="C24" s="10">
         <v>144000015</v>
       </c>
@@ -9835,8 +9839,8 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
+      <c r="A25" s="12"/>
+      <c r="B25" s="12"/>
       <c r="C25" s="10">
         <v>144000032</v>
       </c>
@@ -9845,8 +9849,8 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
+      <c r="A26" s="12"/>
+      <c r="B26" s="12"/>
       <c r="C26" s="10">
         <v>144000039</v>
       </c>
@@ -9855,8 +9859,8 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="13"/>
-      <c r="B27" s="13"/>
+      <c r="A27" s="12"/>
+      <c r="B27" s="12"/>
       <c r="C27" s="10">
         <v>144000043</v>
       </c>
@@ -9865,8 +9869,8 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
+      <c r="A28" s="12"/>
+      <c r="B28" s="12"/>
       <c r="C28" s="10">
         <v>144000046</v>
       </c>
@@ -9875,8 +9879,8 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
+      <c r="A29" s="12"/>
+      <c r="B29" s="12"/>
       <c r="C29" s="10">
         <v>144000047</v>
       </c>
@@ -9885,8 +9889,8 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="13"/>
-      <c r="B30" s="13"/>
+      <c r="A30" s="12"/>
+      <c r="B30" s="12"/>
       <c r="C30" s="10">
         <v>144000048</v>
       </c>
@@ -9895,8 +9899,8 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
+      <c r="A31" s="12"/>
+      <c r="B31" s="12"/>
       <c r="C31" s="10">
         <v>144000050</v>
       </c>
@@ -9905,8 +9909,8 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="13"/>
-      <c r="B32" s="13"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
       <c r="C32" s="10">
         <v>144000051</v>
       </c>
@@ -9915,8 +9919,8 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="13"/>
-      <c r="B33" s="13"/>
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
       <c r="C33" s="10">
         <v>144000054</v>
       </c>
@@ -9925,8 +9929,8 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="13"/>
-      <c r="B34" s="13"/>
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
       <c r="C34" s="10">
         <v>144000057</v>
       </c>
@@ -9935,8 +9939,8 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
+      <c r="A35" s="12"/>
+      <c r="B35" s="12"/>
       <c r="C35" s="10">
         <v>144000058</v>
       </c>
@@ -9945,8 +9949,8 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="13"/>
+      <c r="A36" s="12"/>
+      <c r="B36" s="12"/>
       <c r="C36" s="10">
         <v>144000061</v>
       </c>
@@ -9955,8 +9959,8 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="13"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
       <c r="C37" s="10">
         <v>144000062</v>
       </c>
@@ -9965,8 +9969,8 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="13"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="12"/>
       <c r="C38" s="10">
         <v>144000066</v>
       </c>
@@ -9975,8 +9979,8 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="13"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="12"/>
+      <c r="B39" s="12"/>
       <c r="C39" s="10">
         <v>144000074</v>
       </c>
@@ -9985,8 +9989,8 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="13"/>
-      <c r="B40" s="13"/>
+      <c r="A40" s="12"/>
+      <c r="B40" s="12"/>
       <c r="C40" s="10">
         <v>145000001</v>
       </c>
@@ -9995,8 +9999,8 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="13"/>
-      <c r="B41" s="13"/>
+      <c r="A41" s="12"/>
+      <c r="B41" s="12"/>
       <c r="C41" s="10">
         <v>230000007</v>
       </c>
@@ -10005,8 +10009,8 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="13"/>
-      <c r="B42" s="13"/>
+      <c r="A42" s="12"/>
+      <c r="B42" s="12"/>
       <c r="C42" s="10">
         <v>230000013</v>
       </c>
@@ -10015,8 +10019,8 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
+      <c r="A43" s="12"/>
+      <c r="B43" s="12"/>
       <c r="C43" s="10">
         <v>230000014</v>
       </c>
@@ -10025,8 +10029,8 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="13"/>
-      <c r="B44" s="13"/>
+      <c r="A44" s="12"/>
+      <c r="B44" s="12"/>
       <c r="C44" s="10">
         <v>230000071</v>
       </c>
@@ -10035,8 +10039,8 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="13"/>
-      <c r="B45" s="13"/>
+      <c r="A45" s="12"/>
+      <c r="B45" s="12"/>
       <c r="C45" s="10">
         <v>230000079</v>
       </c>
@@ -10045,8 +10049,8 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="13"/>
-      <c r="B46" s="13"/>
+      <c r="A46" s="12"/>
+      <c r="B46" s="12"/>
       <c r="C46" s="10">
         <v>144000006</v>
       </c>
@@ -10055,8 +10059,8 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="13"/>
-      <c r="B47" s="13"/>
+      <c r="A47" s="12"/>
+      <c r="B47" s="12"/>
       <c r="C47" s="10">
         <v>144000052</v>
       </c>
@@ -10065,8 +10069,8 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="13"/>
-      <c r="B48" s="13"/>
+      <c r="A48" s="12"/>
+      <c r="B48" s="12"/>
       <c r="C48" s="10">
         <v>170150001</v>
       </c>
@@ -10075,8 +10079,8 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="13"/>
-      <c r="B49" s="13"/>
+      <c r="A49" s="12"/>
+      <c r="B49" s="12"/>
       <c r="C49" s="10">
         <v>170150002</v>
       </c>
@@ -10085,8 +10089,8 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="13"/>
-      <c r="B50" s="13"/>
+      <c r="A50" s="12"/>
+      <c r="B50" s="12"/>
       <c r="C50" s="10">
         <v>171030001</v>
       </c>
@@ -10095,8 +10099,8 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="13"/>
-      <c r="B51" s="13"/>
+      <c r="A51" s="12"/>
+      <c r="B51" s="12"/>
       <c r="C51" s="10">
         <v>705190001</v>
       </c>
@@ -10105,8 +10109,8 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="13"/>
-      <c r="B52" s="13"/>
+      <c r="A52" s="12"/>
+      <c r="B52" s="12"/>
       <c r="C52" s="10">
         <v>705190002</v>
       </c>
@@ -10115,8 +10119,8 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="13"/>
-      <c r="B53" s="13"/>
+      <c r="A53" s="12"/>
+      <c r="B53" s="12"/>
       <c r="C53" s="10">
         <v>705190003</v>
       </c>
@@ -10125,8 +10129,8 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="12"/>
-      <c r="B54" s="12"/>
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
       <c r="C54" s="10">
         <v>144000020</v>
       </c>
@@ -10149,8 +10153,8 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="13"/>
-      <c r="B56" s="13"/>
+      <c r="A56" s="12"/>
+      <c r="B56" s="12"/>
       <c r="C56" s="10">
         <v>101000002</v>
       </c>
@@ -10159,8 +10163,8 @@
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="13"/>
-      <c r="B57" s="13"/>
+      <c r="A57" s="12"/>
+      <c r="B57" s="12"/>
       <c r="C57" s="10">
         <v>101000004</v>
       </c>
@@ -10169,8 +10173,8 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="13"/>
-      <c r="B58" s="13"/>
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
       <c r="C58" s="10">
         <v>101000007</v>
       </c>
@@ -10179,8 +10183,8 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="13"/>
-      <c r="B59" s="13"/>
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
       <c r="C59" s="10">
         <v>101000010</v>
       </c>
@@ -10189,8 +10193,8 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="13"/>
-      <c r="B60" s="13"/>
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
       <c r="C60" s="10">
         <v>101000011</v>
       </c>
@@ -10199,8 +10203,8 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="12"/>
-      <c r="B61" s="12"/>
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
       <c r="C61" s="10">
         <v>101000015</v>
       </c>
@@ -10237,8 +10241,8 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="13"/>
-      <c r="B64" s="13"/>
+      <c r="A64" s="12"/>
+      <c r="B64" s="12"/>
       <c r="C64" s="10">
         <v>100050000</v>
       </c>
@@ -10247,8 +10251,8 @@
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="12"/>
-      <c r="B65" s="12"/>
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
       <c r="C65" s="10">
         <v>100050001</v>
       </c>
@@ -10271,8 +10275,8 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="13"/>
-      <c r="B67" s="13"/>
+      <c r="A67" s="12"/>
+      <c r="B67" s="12"/>
       <c r="C67" s="10">
         <v>144000051</v>
       </c>
@@ -10281,8 +10285,8 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="13"/>
-      <c r="B68" s="13"/>
+      <c r="A68" s="12"/>
+      <c r="B68" s="12"/>
       <c r="C68" s="10">
         <v>144000058</v>
       </c>
@@ -10291,8 +10295,8 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="13"/>
-      <c r="B69" s="13"/>
+      <c r="A69" s="12"/>
+      <c r="B69" s="12"/>
       <c r="C69" s="10">
         <v>144000061</v>
       </c>
@@ -10301,8 +10305,8 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="10">
         <v>144000062</v>
       </c>
@@ -10325,8 +10329,8 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
+      <c r="A72" s="12"/>
+      <c r="B72" s="12"/>
       <c r="C72" s="10">
         <v>705190002</v>
       </c>
@@ -10335,8 +10339,8 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="12"/>
-      <c r="B73" s="12"/>
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
       <c r="C73" s="10">
         <v>705190003</v>
       </c>
@@ -10359,8 +10363,8 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
+      <c r="A75" s="12"/>
+      <c r="B75" s="12"/>
       <c r="C75" s="10">
         <v>110000005</v>
       </c>
@@ -10369,8 +10373,8 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
+      <c r="A76" s="12"/>
+      <c r="B76" s="12"/>
       <c r="C76" s="10">
         <v>110010001</v>
       </c>
@@ -10379,8 +10383,8 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
+      <c r="A77" s="12"/>
+      <c r="B77" s="12"/>
       <c r="C77" s="10">
         <v>110010012</v>
       </c>
@@ -10389,8 +10393,8 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
+      <c r="A78" s="12"/>
+      <c r="B78" s="12"/>
       <c r="C78" s="10">
         <v>110020001</v>
       </c>
@@ -10399,8 +10403,8 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
+      <c r="A79" s="12"/>
+      <c r="B79" s="12"/>
       <c r="C79" s="10">
         <v>110020002</v>
       </c>
@@ -10409,8 +10413,8 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
+      <c r="A80" s="12"/>
+      <c r="B80" s="12"/>
       <c r="C80" s="10">
         <v>110020003</v>
       </c>
@@ -10419,8 +10423,8 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
+      <c r="A81" s="12"/>
+      <c r="B81" s="12"/>
       <c r="C81" s="10">
         <v>110020005</v>
       </c>
@@ -10429,8 +10433,8 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
+      <c r="A82" s="12"/>
+      <c r="B82" s="12"/>
       <c r="C82" s="10">
         <v>110020007</v>
       </c>
@@ -10439,8 +10443,8 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
+      <c r="A83" s="12"/>
+      <c r="B83" s="12"/>
       <c r="C83" s="10">
         <v>110020008</v>
       </c>
@@ -10449,8 +10453,8 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
+      <c r="A84" s="12"/>
+      <c r="B84" s="12"/>
       <c r="C84" s="10">
         <v>110020009</v>
       </c>
@@ -10459,8 +10463,8 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
+      <c r="A85" s="12"/>
+      <c r="B85" s="12"/>
       <c r="C85" s="10">
         <v>110020011</v>
       </c>
@@ -10469,8 +10473,8 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
+      <c r="A86" s="12"/>
+      <c r="B86" s="12"/>
       <c r="C86" s="10">
         <v>110030001</v>
       </c>
@@ -10479,8 +10483,8 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
+      <c r="A87" s="12"/>
+      <c r="B87" s="12"/>
       <c r="C87" s="10">
         <v>110030002</v>
       </c>
@@ -10489,8 +10493,8 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
+      <c r="A88" s="12"/>
+      <c r="B88" s="12"/>
       <c r="C88" s="10">
         <v>110030003</v>
       </c>
@@ -10499,8 +10503,8 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
+      <c r="A89" s="12"/>
+      <c r="B89" s="12"/>
       <c r="C89" s="10">
         <v>110030004</v>
       </c>
@@ -10509,8 +10513,8 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
+      <c r="A90" s="12"/>
+      <c r="B90" s="12"/>
       <c r="C90" s="10">
         <v>120000001</v>
       </c>
@@ -10519,8 +10523,8 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="13"/>
-      <c r="B91" s="13"/>
+      <c r="A91" s="12"/>
+      <c r="B91" s="12"/>
       <c r="C91" s="10">
         <v>120000005</v>
       </c>
@@ -10529,8 +10533,8 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="13"/>
-      <c r="B92" s="13"/>
+      <c r="A92" s="12"/>
+      <c r="B92" s="12"/>
       <c r="C92" s="10">
         <v>120010001</v>
       </c>
@@ -10539,8 +10543,8 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="13"/>
-      <c r="B93" s="13"/>
+      <c r="A93" s="12"/>
+      <c r="B93" s="12"/>
       <c r="C93" s="10">
         <v>120020001</v>
       </c>
@@ -10549,8 +10553,8 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="13"/>
-      <c r="B94" s="13"/>
+      <c r="A94" s="12"/>
+      <c r="B94" s="12"/>
       <c r="C94" s="10">
         <v>120020002</v>
       </c>
@@ -10559,8 +10563,8 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="13"/>
-      <c r="B95" s="13"/>
+      <c r="A95" s="12"/>
+      <c r="B95" s="12"/>
       <c r="C95" s="10">
         <v>120010012</v>
       </c>
@@ -10569,8 +10573,8 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="13"/>
-      <c r="B96" s="13"/>
+      <c r="A96" s="12"/>
+      <c r="B96" s="12"/>
       <c r="C96" s="10">
         <v>120030002</v>
       </c>
@@ -10579,8 +10583,8 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="13"/>
-      <c r="B97" s="13"/>
+      <c r="A97" s="12"/>
+      <c r="B97" s="12"/>
       <c r="C97" s="10">
         <v>120050001</v>
       </c>
@@ -10589,8 +10593,8 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="13"/>
-      <c r="B98" s="13"/>
+      <c r="A98" s="12"/>
+      <c r="B98" s="12"/>
       <c r="C98" s="10">
         <v>120030003</v>
       </c>
@@ -10599,8 +10603,8 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="13"/>
-      <c r="B99" s="13"/>
+      <c r="A99" s="12"/>
+      <c r="B99" s="12"/>
       <c r="C99" s="10">
         <v>120030006</v>
       </c>
@@ -10609,8 +10613,8 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="13"/>
-      <c r="B100" s="13"/>
+      <c r="A100" s="12"/>
+      <c r="B100" s="12"/>
       <c r="C100" s="10">
         <v>120050005</v>
       </c>
@@ -10619,8 +10623,8 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="13"/>
-      <c r="B101" s="13"/>
+      <c r="A101" s="12"/>
+      <c r="B101" s="12"/>
       <c r="C101" s="10">
         <v>120020007</v>
       </c>
@@ -10629,8 +10633,8 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13"/>
+      <c r="A102" s="12"/>
+      <c r="B102" s="12"/>
       <c r="C102" s="10">
         <v>130000005</v>
       </c>
@@ -10661,8 +10665,8 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="13"/>
-      <c r="B105" s="13"/>
+      <c r="A105" s="12"/>
+      <c r="B105" s="12"/>
       <c r="C105" s="10">
         <v>110050002</v>
       </c>
@@ -10671,8 +10675,8 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="12"/>
-      <c r="B106" s="12"/>
+      <c r="A106" s="13"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="10">
         <v>110050005</v>
       </c>
@@ -10725,8 +10729,8 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
+      <c r="A111" s="12"/>
+      <c r="B111" s="12"/>
       <c r="C111" s="10">
         <v>100009000</v>
       </c>
@@ -10735,8 +10739,8 @@
       </c>
     </row>
     <row r="112" spans="1:4">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
+      <c r="A112" s="12"/>
+      <c r="B112" s="12"/>
       <c r="C112" s="10">
         <v>100026000</v>
       </c>
@@ -10745,8 +10749,8 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
+      <c r="A113" s="12"/>
+      <c r="B113" s="12"/>
       <c r="C113" s="10">
         <v>100027000</v>
       </c>
@@ -10755,8 +10759,8 @@
       </c>
     </row>
     <row r="114" spans="1:4">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
+      <c r="A114" s="12"/>
+      <c r="B114" s="12"/>
       <c r="C114" s="10">
         <v>100047000</v>
       </c>
@@ -10765,8 +10769,8 @@
       </c>
     </row>
     <row r="115" spans="1:4">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
+      <c r="A115" s="12"/>
+      <c r="B115" s="12"/>
       <c r="C115" s="10">
         <v>100048000</v>
       </c>
@@ -10775,8 +10779,8 @@
       </c>
     </row>
     <row r="116" spans="1:4">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
+      <c r="A116" s="12"/>
+      <c r="B116" s="12"/>
       <c r="C116" s="10">
         <v>100049000</v>
       </c>
@@ -10785,8 +10789,8 @@
       </c>
     </row>
     <row r="117" spans="1:4">
-      <c r="A117" s="12"/>
-      <c r="B117" s="12"/>
+      <c r="A117" s="13"/>
+      <c r="B117" s="13"/>
       <c r="C117" s="10">
         <v>230000088</v>
       </c>
@@ -10859,8 +10863,8 @@
       </c>
     </row>
     <row r="124" spans="1:4">
-      <c r="A124" s="13"/>
-      <c r="B124" s="13"/>
+      <c r="A124" s="12"/>
+      <c r="B124" s="12"/>
       <c r="C124" s="10">
         <v>705100004</v>
       </c>
@@ -10869,8 +10873,8 @@
       </c>
     </row>
     <row r="125" spans="1:4">
-      <c r="A125" s="13"/>
-      <c r="B125" s="13"/>
+      <c r="A125" s="12"/>
+      <c r="B125" s="12"/>
       <c r="C125" s="10">
         <v>705080002</v>
       </c>
@@ -10879,8 +10883,8 @@
       </c>
     </row>
     <row r="126" spans="1:4">
-      <c r="A126" s="13"/>
-      <c r="B126" s="13"/>
+      <c r="A126" s="12"/>
+      <c r="B126" s="12"/>
       <c r="C126" s="10">
         <v>705110003</v>
       </c>
@@ -10889,8 +10893,8 @@
       </c>
     </row>
     <row r="127" spans="1:4">
-      <c r="A127" s="13"/>
-      <c r="B127" s="13"/>
+      <c r="A127" s="12"/>
+      <c r="B127" s="12"/>
       <c r="C127" s="10">
         <v>705040005</v>
       </c>
@@ -10899,8 +10903,8 @@
       </c>
     </row>
     <row r="128" spans="1:4">
-      <c r="A128" s="13"/>
-      <c r="B128" s="13"/>
+      <c r="A128" s="12"/>
+      <c r="B128" s="12"/>
       <c r="C128" s="10">
         <v>705040009</v>
       </c>
@@ -10909,8 +10913,8 @@
       </c>
     </row>
     <row r="129" spans="1:4">
-      <c r="A129" s="13"/>
-      <c r="B129" s="13"/>
+      <c r="A129" s="12"/>
+      <c r="B129" s="12"/>
       <c r="C129" s="10">
         <v>700090003</v>
       </c>
@@ -10919,8 +10923,8 @@
       </c>
     </row>
     <row r="130" spans="1:4">
-      <c r="A130" s="13"/>
-      <c r="B130" s="13"/>
+      <c r="A130" s="12"/>
+      <c r="B130" s="12"/>
       <c r="C130" s="10">
         <v>701010011</v>
       </c>
@@ -10929,8 +10933,8 @@
       </c>
     </row>
     <row r="131" spans="1:4">
-      <c r="A131" s="13"/>
-      <c r="B131" s="13"/>
+      <c r="A131" s="12"/>
+      <c r="B131" s="12"/>
       <c r="C131" s="10">
         <v>700010017</v>
       </c>
@@ -10939,8 +10943,8 @@
       </c>
     </row>
     <row r="132" spans="1:4">
-      <c r="A132" s="13"/>
-      <c r="B132" s="13"/>
+      <c r="A132" s="12"/>
+      <c r="B132" s="12"/>
       <c r="C132" s="10">
         <v>700090004</v>
       </c>
@@ -10949,8 +10953,8 @@
       </c>
     </row>
     <row r="133" spans="1:4">
-      <c r="A133" s="13"/>
-      <c r="B133" s="13"/>
+      <c r="A133" s="12"/>
+      <c r="B133" s="12"/>
       <c r="C133" s="10">
         <v>701010002</v>
       </c>
@@ -10959,8 +10963,8 @@
       </c>
     </row>
     <row r="134" spans="1:4">
-      <c r="A134" s="13"/>
-      <c r="B134" s="13"/>
+      <c r="A134" s="12"/>
+      <c r="B134" s="12"/>
       <c r="C134" s="10">
         <v>701010003</v>
       </c>
@@ -10969,8 +10973,8 @@
       </c>
     </row>
     <row r="135" spans="1:4">
-      <c r="A135" s="13"/>
-      <c r="B135" s="13"/>
+      <c r="A135" s="12"/>
+      <c r="B135" s="12"/>
       <c r="C135" s="10">
         <v>701010006</v>
       </c>
@@ -10979,8 +10983,8 @@
       </c>
     </row>
     <row r="136" spans="1:4">
-      <c r="A136" s="13"/>
-      <c r="B136" s="13"/>
+      <c r="A136" s="12"/>
+      <c r="B136" s="12"/>
       <c r="C136" s="10">
         <v>701010008</v>
       </c>
@@ -10989,8 +10993,8 @@
       </c>
     </row>
     <row r="137" spans="1:4">
-      <c r="A137" s="13"/>
-      <c r="B137" s="13"/>
+      <c r="A137" s="12"/>
+      <c r="B137" s="12"/>
       <c r="C137" s="10">
         <v>701010009</v>
       </c>
@@ -10999,8 +11003,8 @@
       </c>
     </row>
     <row r="138" spans="1:4">
-      <c r="A138" s="13"/>
-      <c r="B138" s="13"/>
+      <c r="A138" s="12"/>
+      <c r="B138" s="12"/>
       <c r="C138" s="10">
         <v>701010012</v>
       </c>
@@ -11009,8 +11013,8 @@
       </c>
     </row>
     <row r="139" spans="1:4">
-      <c r="A139" s="13"/>
-      <c r="B139" s="13"/>
+      <c r="A139" s="12"/>
+      <c r="B139" s="12"/>
       <c r="C139" s="10">
         <v>701010013</v>
       </c>
@@ -11019,8 +11023,8 @@
       </c>
     </row>
     <row r="140" spans="1:4">
-      <c r="A140" s="13"/>
-      <c r="B140" s="13"/>
+      <c r="A140" s="12"/>
+      <c r="B140" s="12"/>
       <c r="C140" s="10">
         <v>701010010</v>
       </c>
@@ -11029,8 +11033,8 @@
       </c>
     </row>
     <row r="141" spans="1:4">
-      <c r="A141" s="13"/>
-      <c r="B141" s="13"/>
+      <c r="A141" s="12"/>
+      <c r="B141" s="12"/>
       <c r="C141" s="10">
         <v>702010002</v>
       </c>
@@ -11039,8 +11043,8 @@
       </c>
     </row>
     <row r="142" spans="1:4">
-      <c r="A142" s="13"/>
-      <c r="B142" s="13"/>
+      <c r="A142" s="12"/>
+      <c r="B142" s="12"/>
       <c r="C142" s="10">
         <v>702030001</v>
       </c>
@@ -11049,8 +11053,8 @@
       </c>
     </row>
     <row r="143" spans="1:4">
-      <c r="A143" s="13"/>
-      <c r="B143" s="13"/>
+      <c r="A143" s="12"/>
+      <c r="B143" s="12"/>
       <c r="C143" s="10">
         <v>702030003</v>
       </c>
@@ -11059,8 +11063,8 @@
       </c>
     </row>
     <row r="144" spans="1:4">
-      <c r="A144" s="13"/>
-      <c r="B144" s="13"/>
+      <c r="A144" s="12"/>
+      <c r="B144" s="12"/>
       <c r="C144" s="10">
         <v>702030004</v>
       </c>
@@ -11069,8 +11073,8 @@
       </c>
     </row>
     <row r="145" spans="1:4">
-      <c r="A145" s="13"/>
-      <c r="B145" s="13"/>
+      <c r="A145" s="12"/>
+      <c r="B145" s="12"/>
       <c r="C145" s="10">
         <v>702040002</v>
       </c>
@@ -11079,8 +11083,8 @@
       </c>
     </row>
     <row r="146" spans="1:4">
-      <c r="A146" s="13"/>
-      <c r="B146" s="13"/>
+      <c r="A146" s="12"/>
+      <c r="B146" s="12"/>
       <c r="C146" s="10">
         <v>702040004</v>
       </c>
@@ -11089,8 +11093,8 @@
       </c>
     </row>
     <row r="147" spans="1:4">
-      <c r="A147" s="13"/>
-      <c r="B147" s="13"/>
+      <c r="A147" s="12"/>
+      <c r="B147" s="12"/>
       <c r="C147" s="10">
         <v>702040006</v>
       </c>
@@ -11099,8 +11103,8 @@
       </c>
     </row>
     <row r="148" spans="1:4">
-      <c r="A148" s="13"/>
-      <c r="B148" s="13"/>
+      <c r="A148" s="12"/>
+      <c r="B148" s="12"/>
       <c r="C148" s="10">
         <v>704010001</v>
       </c>
@@ -11109,8 +11113,8 @@
       </c>
     </row>
     <row r="149" spans="1:4">
-      <c r="A149" s="13"/>
-      <c r="B149" s="13"/>
+      <c r="A149" s="12"/>
+      <c r="B149" s="12"/>
       <c r="C149" s="10">
         <v>704020001</v>
       </c>
@@ -11119,8 +11123,8 @@
       </c>
     </row>
     <row r="150" spans="1:4">
-      <c r="A150" s="13"/>
-      <c r="B150" s="13"/>
+      <c r="A150" s="12"/>
+      <c r="B150" s="12"/>
       <c r="C150" s="10">
         <v>704020002</v>
       </c>
@@ -11129,8 +11133,8 @@
       </c>
     </row>
     <row r="151" spans="1:4">
-      <c r="A151" s="13"/>
-      <c r="B151" s="13"/>
+      <c r="A151" s="12"/>
+      <c r="B151" s="12"/>
       <c r="C151" s="10">
         <v>704020004</v>
       </c>
@@ -11139,8 +11143,8 @@
       </c>
     </row>
     <row r="152" spans="1:4">
-      <c r="A152" s="13"/>
-      <c r="B152" s="13"/>
+      <c r="A152" s="12"/>
+      <c r="B152" s="12"/>
       <c r="C152" s="10">
         <v>704020007</v>
       </c>
@@ -11149,8 +11153,8 @@
       </c>
     </row>
     <row r="153" spans="1:4">
-      <c r="A153" s="13"/>
-      <c r="B153" s="13"/>
+      <c r="A153" s="12"/>
+      <c r="B153" s="12"/>
       <c r="C153" s="10">
         <v>704020012</v>
       </c>
@@ -11159,8 +11163,8 @@
       </c>
     </row>
     <row r="154" spans="1:4">
-      <c r="A154" s="13"/>
-      <c r="B154" s="13"/>
+      <c r="A154" s="12"/>
+      <c r="B154" s="12"/>
       <c r="C154" s="10">
         <v>704020013</v>
       </c>
@@ -11169,8 +11173,8 @@
       </c>
     </row>
     <row r="155" spans="1:4">
-      <c r="A155" s="13"/>
-      <c r="B155" s="13"/>
+      <c r="A155" s="12"/>
+      <c r="B155" s="12"/>
       <c r="C155" s="10">
         <v>704030004</v>
       </c>
@@ -11179,8 +11183,8 @@
       </c>
     </row>
     <row r="156" spans="1:4">
-      <c r="A156" s="13"/>
-      <c r="B156" s="13"/>
+      <c r="A156" s="12"/>
+      <c r="B156" s="12"/>
       <c r="C156" s="10">
         <v>705010001</v>
       </c>
@@ -11189,8 +11193,8 @@
       </c>
     </row>
     <row r="157" spans="1:4">
-      <c r="A157" s="13"/>
-      <c r="B157" s="13"/>
+      <c r="A157" s="12"/>
+      <c r="B157" s="12"/>
       <c r="C157" s="10">
         <v>705010002</v>
       </c>
@@ -11199,8 +11203,8 @@
       </c>
     </row>
     <row r="158" spans="1:4">
-      <c r="A158" s="13"/>
-      <c r="B158" s="13"/>
+      <c r="A158" s="12"/>
+      <c r="B158" s="12"/>
       <c r="C158" s="10">
         <v>705010003</v>
       </c>
@@ -11209,8 +11213,8 @@
       </c>
     </row>
     <row r="159" spans="1:4">
-      <c r="A159" s="13"/>
-      <c r="B159" s="13"/>
+      <c r="A159" s="12"/>
+      <c r="B159" s="12"/>
       <c r="C159" s="10">
         <v>705050001</v>
       </c>
@@ -11219,8 +11223,8 @@
       </c>
     </row>
     <row r="160" spans="1:4">
-      <c r="A160" s="13"/>
-      <c r="B160" s="13"/>
+      <c r="A160" s="12"/>
+      <c r="B160" s="12"/>
       <c r="C160" s="10">
         <v>705060002</v>
       </c>
@@ -11229,8 +11233,8 @@
       </c>
     </row>
     <row r="161" spans="1:4">
-      <c r="A161" s="13"/>
-      <c r="B161" s="13"/>
+      <c r="A161" s="12"/>
+      <c r="B161" s="12"/>
       <c r="C161" s="10">
         <v>705060004</v>
       </c>
@@ -11239,8 +11243,8 @@
       </c>
     </row>
     <row r="162" spans="1:4">
-      <c r="A162" s="13"/>
-      <c r="B162" s="13"/>
+      <c r="A162" s="12"/>
+      <c r="B162" s="12"/>
       <c r="C162" s="10">
         <v>705090001</v>
       </c>
@@ -11249,8 +11253,8 @@
       </c>
     </row>
     <row r="163" spans="1:4">
-      <c r="A163" s="13"/>
-      <c r="B163" s="13"/>
+      <c r="A163" s="12"/>
+      <c r="B163" s="12"/>
       <c r="C163" s="10">
         <v>705100003</v>
       </c>
@@ -11259,8 +11263,8 @@
       </c>
     </row>
     <row r="164" spans="1:4">
-      <c r="A164" s="13"/>
-      <c r="B164" s="13"/>
+      <c r="A164" s="12"/>
+      <c r="B164" s="12"/>
       <c r="C164" s="10">
         <v>705110002</v>
       </c>
@@ -11269,8 +11273,8 @@
       </c>
     </row>
     <row r="165" spans="1:4">
-      <c r="A165" s="13"/>
-      <c r="B165" s="13"/>
+      <c r="A165" s="12"/>
+      <c r="B165" s="12"/>
       <c r="C165" s="10">
         <v>705110004</v>
       </c>
@@ -11279,8 +11283,8 @@
       </c>
     </row>
     <row r="166" spans="1:4">
-      <c r="A166" s="13"/>
-      <c r="B166" s="13"/>
+      <c r="A166" s="12"/>
+      <c r="B166" s="12"/>
       <c r="C166" s="10">
         <v>705110005</v>
       </c>
@@ -11289,8 +11293,8 @@
       </c>
     </row>
     <row r="167" spans="1:4">
-      <c r="A167" s="13"/>
-      <c r="B167" s="13"/>
+      <c r="A167" s="12"/>
+      <c r="B167" s="12"/>
       <c r="C167" s="10">
         <v>705110006</v>
       </c>
@@ -11299,8 +11303,8 @@
       </c>
     </row>
     <row r="168" spans="1:4">
-      <c r="A168" s="13"/>
-      <c r="B168" s="13"/>
+      <c r="A168" s="12"/>
+      <c r="B168" s="12"/>
       <c r="C168" s="10">
         <v>705110007</v>
       </c>
@@ -11309,8 +11313,8 @@
       </c>
     </row>
     <row r="169" spans="1:4">
-      <c r="A169" s="13"/>
-      <c r="B169" s="13"/>
+      <c r="A169" s="12"/>
+      <c r="B169" s="12"/>
       <c r="C169" s="10">
         <v>705120001</v>
       </c>
@@ -11319,8 +11323,8 @@
       </c>
     </row>
     <row r="170" spans="1:4">
-      <c r="A170" s="13"/>
-      <c r="B170" s="13"/>
+      <c r="A170" s="12"/>
+      <c r="B170" s="12"/>
       <c r="C170" s="10">
         <v>705120005</v>
       </c>
@@ -11329,8 +11333,8 @@
       </c>
     </row>
     <row r="171" spans="1:4">
-      <c r="A171" s="13"/>
-      <c r="B171" s="13"/>
+      <c r="A171" s="12"/>
+      <c r="B171" s="12"/>
       <c r="C171" s="10">
         <v>705120006</v>
       </c>
@@ -11339,8 +11343,8 @@
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="13"/>
-      <c r="B172" s="13"/>
+      <c r="A172" s="12"/>
+      <c r="B172" s="12"/>
       <c r="C172" s="10">
         <v>705160001</v>
       </c>
@@ -11349,8 +11353,8 @@
       </c>
     </row>
     <row r="173" spans="1:4">
-      <c r="A173" s="13"/>
-      <c r="B173" s="13"/>
+      <c r="A173" s="12"/>
+      <c r="B173" s="12"/>
       <c r="C173" s="10">
         <v>705160002</v>
       </c>
@@ -11359,8 +11363,8 @@
       </c>
     </row>
     <row r="174" spans="1:4">
-      <c r="A174" s="13"/>
-      <c r="B174" s="13"/>
+      <c r="A174" s="12"/>
+      <c r="B174" s="12"/>
       <c r="C174" s="10">
         <v>705160003</v>
       </c>
@@ -11369,8 +11373,8 @@
       </c>
     </row>
     <row r="175" spans="1:4">
-      <c r="A175" s="13"/>
-      <c r="B175" s="13"/>
+      <c r="A175" s="12"/>
+      <c r="B175" s="12"/>
       <c r="C175" s="10">
         <v>705170001</v>
       </c>
@@ -11379,8 +11383,8 @@
       </c>
     </row>
     <row r="176" spans="1:4">
-      <c r="A176" s="13"/>
-      <c r="B176" s="13"/>
+      <c r="A176" s="12"/>
+      <c r="B176" s="12"/>
       <c r="C176" s="10">
         <v>505040001</v>
       </c>
@@ -11389,8 +11393,8 @@
       </c>
     </row>
     <row r="177" spans="1:4">
-      <c r="A177" s="13"/>
-      <c r="B177" s="13"/>
+      <c r="A177" s="12"/>
+      <c r="B177" s="12"/>
       <c r="C177" s="10">
         <v>505040002</v>
       </c>
@@ -11399,8 +11403,8 @@
       </c>
     </row>
     <row r="178" spans="1:4">
-      <c r="A178" s="13"/>
-      <c r="B178" s="13"/>
+      <c r="A178" s="12"/>
+      <c r="B178" s="12"/>
       <c r="C178" s="10">
         <v>505040006</v>
       </c>
@@ -11409,8 +11413,8 @@
       </c>
     </row>
     <row r="179" spans="1:4">
-      <c r="A179" s="13"/>
-      <c r="B179" s="13"/>
+      <c r="A179" s="12"/>
+      <c r="B179" s="12"/>
       <c r="C179" s="10">
         <v>505040009</v>
       </c>
@@ -11419,8 +11423,8 @@
       </c>
     </row>
     <row r="180" spans="1:4">
-      <c r="A180" s="13"/>
-      <c r="B180" s="13"/>
+      <c r="A180" s="12"/>
+      <c r="B180" s="12"/>
       <c r="C180" s="10">
         <v>700010001</v>
       </c>
@@ -11429,8 +11433,8 @@
       </c>
     </row>
     <row r="181" spans="1:4">
-      <c r="A181" s="13"/>
-      <c r="B181" s="13"/>
+      <c r="A181" s="12"/>
+      <c r="B181" s="12"/>
       <c r="C181" s="10">
         <v>700010004</v>
       </c>
@@ -11439,8 +11443,8 @@
       </c>
     </row>
     <row r="182" spans="1:4">
-      <c r="A182" s="13"/>
-      <c r="B182" s="13"/>
+      <c r="A182" s="12"/>
+      <c r="B182" s="12"/>
       <c r="C182" s="10">
         <v>700010005</v>
       </c>
@@ -11449,8 +11453,8 @@
       </c>
     </row>
     <row r="183" spans="1:4">
-      <c r="A183" s="13"/>
-      <c r="B183" s="13"/>
+      <c r="A183" s="12"/>
+      <c r="B183" s="12"/>
       <c r="C183" s="10">
         <v>700020002</v>
       </c>
@@ -11459,8 +11463,8 @@
       </c>
     </row>
     <row r="184" spans="1:4">
-      <c r="A184" s="13"/>
-      <c r="B184" s="13"/>
+      <c r="A184" s="12"/>
+      <c r="B184" s="12"/>
       <c r="C184" s="10">
         <v>700030001</v>
       </c>
@@ -11469,8 +11473,8 @@
       </c>
     </row>
     <row r="185" spans="1:4">
-      <c r="A185" s="13"/>
-      <c r="B185" s="13"/>
+      <c r="A185" s="12"/>
+      <c r="B185" s="12"/>
       <c r="C185" s="10">
         <v>700040002</v>
       </c>
@@ -11479,8 +11483,8 @@
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="13"/>
-      <c r="B186" s="13"/>
+      <c r="A186" s="12"/>
+      <c r="B186" s="12"/>
       <c r="C186" s="10">
         <v>700050001</v>
       </c>
@@ -11489,8 +11493,8 @@
       </c>
     </row>
     <row r="187" spans="1:4">
-      <c r="A187" s="13"/>
-      <c r="B187" s="13"/>
+      <c r="A187" s="12"/>
+      <c r="B187" s="12"/>
       <c r="C187" s="10">
         <v>700060001</v>
       </c>
@@ -11499,8 +11503,8 @@
       </c>
     </row>
     <row r="188" spans="1:4">
-      <c r="A188" s="13"/>
-      <c r="B188" s="13"/>
+      <c r="A188" s="12"/>
+      <c r="B188" s="12"/>
       <c r="C188" s="10">
         <v>700090001</v>
       </c>
@@ -11509,8 +11513,8 @@
       </c>
     </row>
     <row r="189" spans="1:4">
-      <c r="A189" s="13"/>
-      <c r="B189" s="13"/>
+      <c r="A189" s="12"/>
+      <c r="B189" s="12"/>
       <c r="C189" s="10">
         <v>700090005</v>
       </c>
@@ -11519,8 +11523,8 @@
       </c>
     </row>
     <row r="190" spans="1:4">
-      <c r="A190" s="13"/>
-      <c r="B190" s="13"/>
+      <c r="A190" s="12"/>
+      <c r="B190" s="12"/>
       <c r="C190" s="10">
         <v>700090009</v>
       </c>
@@ -11529,8 +11533,8 @@
       </c>
     </row>
     <row r="191" spans="1:4">
-      <c r="A191" s="13"/>
-      <c r="B191" s="13"/>
+      <c r="A191" s="12"/>
+      <c r="B191" s="12"/>
       <c r="C191" s="10">
         <v>700090006</v>
       </c>
@@ -11539,8 +11543,8 @@
       </c>
     </row>
     <row r="192" spans="1:4">
-      <c r="A192" s="13"/>
-      <c r="B192" s="13"/>
+      <c r="A192" s="12"/>
+      <c r="B192" s="12"/>
       <c r="C192" s="10">
         <v>700090011</v>
       </c>
@@ -11549,8 +11553,8 @@
       </c>
     </row>
     <row r="193" spans="1:4">
-      <c r="A193" s="13"/>
-      <c r="B193" s="13"/>
+      <c r="A193" s="12"/>
+      <c r="B193" s="12"/>
       <c r="C193" s="10">
         <v>700090013</v>
       </c>
@@ -11559,8 +11563,8 @@
       </c>
     </row>
     <row r="194" spans="1:4">
-      <c r="A194" s="13"/>
-      <c r="B194" s="13"/>
+      <c r="A194" s="12"/>
+      <c r="B194" s="12"/>
       <c r="C194" s="10">
         <v>700090015</v>
       </c>
@@ -11569,8 +11573,8 @@
       </c>
     </row>
     <row r="195" spans="1:4">
-      <c r="A195" s="13"/>
-      <c r="B195" s="13"/>
+      <c r="A195" s="12"/>
+      <c r="B195" s="12"/>
       <c r="C195" s="10">
         <v>701020001</v>
       </c>
@@ -11579,8 +11583,8 @@
       </c>
     </row>
     <row r="196" spans="1:4">
-      <c r="A196" s="13"/>
-      <c r="B196" s="13"/>
+      <c r="A196" s="12"/>
+      <c r="B196" s="12"/>
       <c r="C196" s="10">
         <v>701020005</v>
       </c>
@@ -11589,8 +11593,8 @@
       </c>
     </row>
     <row r="197" spans="1:4">
-      <c r="A197" s="13"/>
-      <c r="B197" s="13"/>
+      <c r="A197" s="12"/>
+      <c r="B197" s="12"/>
       <c r="C197" s="10">
         <v>701020006</v>
       </c>
@@ -11599,8 +11603,8 @@
       </c>
     </row>
     <row r="198" spans="1:4">
-      <c r="A198" s="13"/>
-      <c r="B198" s="13"/>
+      <c r="A198" s="12"/>
+      <c r="B198" s="12"/>
       <c r="C198" s="10">
         <v>705040011</v>
       </c>
@@ -11609,8 +11613,8 @@
       </c>
     </row>
     <row r="199" spans="1:4">
-      <c r="A199" s="13"/>
-      <c r="B199" s="13"/>
+      <c r="A199" s="12"/>
+      <c r="B199" s="12"/>
       <c r="C199" s="10">
         <v>500020055</v>
       </c>
@@ -11619,8 +11623,8 @@
       </c>
     </row>
     <row r="200" spans="1:4">
-      <c r="A200" s="13"/>
-      <c r="B200" s="13"/>
+      <c r="A200" s="12"/>
+      <c r="B200" s="12"/>
       <c r="C200" s="10">
         <v>500020056</v>
       </c>
@@ -11629,8 +11633,8 @@
       </c>
     </row>
     <row r="201" spans="1:4">
-      <c r="A201" s="13"/>
-      <c r="B201" s="13"/>
+      <c r="A201" s="12"/>
+      <c r="B201" s="12"/>
       <c r="C201" s="10">
         <v>500020058</v>
       </c>
@@ -11639,8 +11643,8 @@
       </c>
     </row>
     <row r="202" spans="1:4">
-      <c r="A202" s="13"/>
-      <c r="B202" s="13"/>
+      <c r="A202" s="12"/>
+      <c r="B202" s="12"/>
       <c r="C202" s="10">
         <v>701010001</v>
       </c>
@@ -11649,8 +11653,8 @@
       </c>
     </row>
     <row r="203" spans="1:4">
-      <c r="A203" s="13"/>
-      <c r="B203" s="13"/>
+      <c r="A203" s="12"/>
+      <c r="B203" s="12"/>
       <c r="C203" s="10">
         <v>703020001</v>
       </c>
@@ -11659,8 +11663,8 @@
       </c>
     </row>
     <row r="204" spans="1:4">
-      <c r="A204" s="13"/>
-      <c r="B204" s="13"/>
+      <c r="A204" s="12"/>
+      <c r="B204" s="12"/>
       <c r="C204" s="10">
         <v>703020004</v>
       </c>
@@ -11669,8 +11673,8 @@
       </c>
     </row>
     <row r="205" spans="1:4">
-      <c r="A205" s="13"/>
-      <c r="B205" s="13"/>
+      <c r="A205" s="12"/>
+      <c r="B205" s="12"/>
       <c r="C205" s="10">
         <v>703020006</v>
       </c>
@@ -11679,8 +11683,8 @@
       </c>
     </row>
     <row r="206" spans="1:4">
-      <c r="A206" s="13"/>
-      <c r="B206" s="13"/>
+      <c r="A206" s="12"/>
+      <c r="B206" s="12"/>
       <c r="C206" s="10">
         <v>703020008</v>
       </c>
@@ -11689,8 +11693,8 @@
       </c>
     </row>
     <row r="207" spans="1:4">
-      <c r="A207" s="13"/>
-      <c r="B207" s="13"/>
+      <c r="A207" s="12"/>
+      <c r="B207" s="12"/>
       <c r="C207" s="10">
         <v>703020011</v>
       </c>
@@ -11699,8 +11703,8 @@
       </c>
     </row>
     <row r="208" spans="1:4">
-      <c r="A208" s="13"/>
-      <c r="B208" s="13"/>
+      <c r="A208" s="12"/>
+      <c r="B208" s="12"/>
       <c r="C208" s="10">
         <v>500010009</v>
       </c>
@@ -11709,8 +11713,8 @@
       </c>
     </row>
     <row r="209" spans="1:4">
-      <c r="A209" s="13"/>
-      <c r="B209" s="13"/>
+      <c r="A209" s="12"/>
+      <c r="B209" s="12"/>
       <c r="C209" s="10">
         <v>500010010</v>
       </c>
@@ -11719,8 +11723,8 @@
       </c>
     </row>
     <row r="210" spans="1:4">
-      <c r="A210" s="13"/>
-      <c r="B210" s="13"/>
+      <c r="A210" s="12"/>
+      <c r="B210" s="12"/>
       <c r="C210" s="10">
         <v>500010015</v>
       </c>
@@ -11729,8 +11733,8 @@
       </c>
     </row>
     <row r="211" spans="1:4">
-      <c r="A211" s="13"/>
-      <c r="B211" s="13"/>
+      <c r="A211" s="12"/>
+      <c r="B211" s="12"/>
       <c r="C211" s="10">
         <v>500020001</v>
       </c>
@@ -11739,8 +11743,8 @@
       </c>
     </row>
     <row r="212" spans="1:4">
-      <c r="A212" s="13"/>
-      <c r="B212" s="13"/>
+      <c r="A212" s="12"/>
+      <c r="B212" s="12"/>
       <c r="C212" s="10">
         <v>500020003</v>
       </c>
@@ -11749,8 +11753,8 @@
       </c>
     </row>
     <row r="213" spans="1:4">
-      <c r="A213" s="13"/>
-      <c r="B213" s="13"/>
+      <c r="A213" s="12"/>
+      <c r="B213" s="12"/>
       <c r="C213" s="10">
         <v>500020010</v>
       </c>
@@ -11759,8 +11763,8 @@
       </c>
     </row>
     <row r="214" spans="1:4">
-      <c r="A214" s="13"/>
-      <c r="B214" s="13"/>
+      <c r="A214" s="12"/>
+      <c r="B214" s="12"/>
       <c r="C214" s="10">
         <v>500020011</v>
       </c>
@@ -11769,8 +11773,8 @@
       </c>
     </row>
     <row r="215" spans="1:4">
-      <c r="A215" s="13"/>
-      <c r="B215" s="13"/>
+      <c r="A215" s="12"/>
+      <c r="B215" s="12"/>
       <c r="C215" s="10">
         <v>500020014</v>
       </c>
@@ -11779,8 +11783,8 @@
       </c>
     </row>
     <row r="216" spans="1:4">
-      <c r="A216" s="13"/>
-      <c r="B216" s="13"/>
+      <c r="A216" s="12"/>
+      <c r="B216" s="12"/>
       <c r="C216" s="10">
         <v>500020015</v>
       </c>
@@ -11789,8 +11793,8 @@
       </c>
     </row>
     <row r="217" spans="1:4">
-      <c r="A217" s="13"/>
-      <c r="B217" s="13"/>
+      <c r="A217" s="12"/>
+      <c r="B217" s="12"/>
       <c r="C217" s="10">
         <v>500020016</v>
       </c>
@@ -11799,8 +11803,8 @@
       </c>
     </row>
     <row r="218" spans="1:4">
-      <c r="A218" s="13"/>
-      <c r="B218" s="13"/>
+      <c r="A218" s="12"/>
+      <c r="B218" s="12"/>
       <c r="C218" s="10">
         <v>500020018</v>
       </c>
@@ -11809,8 +11813,8 @@
       </c>
     </row>
     <row r="219" spans="1:4">
-      <c r="A219" s="13"/>
-      <c r="B219" s="13"/>
+      <c r="A219" s="12"/>
+      <c r="B219" s="12"/>
       <c r="C219" s="10">
         <v>500020019</v>
       </c>
@@ -11819,8 +11823,8 @@
       </c>
     </row>
     <row r="220" spans="1:4">
-      <c r="A220" s="13"/>
-      <c r="B220" s="13"/>
+      <c r="A220" s="12"/>
+      <c r="B220" s="12"/>
       <c r="C220" s="10">
         <v>500020020</v>
       </c>
@@ -11829,8 +11833,8 @@
       </c>
     </row>
     <row r="221" spans="1:4">
-      <c r="A221" s="13"/>
-      <c r="B221" s="13"/>
+      <c r="A221" s="12"/>
+      <c r="B221" s="12"/>
       <c r="C221" s="10">
         <v>500020027</v>
       </c>
@@ -11839,8 +11843,8 @@
       </c>
     </row>
     <row r="222" spans="1:4">
-      <c r="A222" s="13"/>
-      <c r="B222" s="13"/>
+      <c r="A222" s="12"/>
+      <c r="B222" s="12"/>
       <c r="C222" s="10">
         <v>500020030</v>
       </c>
@@ -11849,8 +11853,8 @@
       </c>
     </row>
     <row r="223" spans="1:4">
-      <c r="A223" s="13"/>
-      <c r="B223" s="13"/>
+      <c r="A223" s="12"/>
+      <c r="B223" s="12"/>
       <c r="C223" s="10">
         <v>500020036</v>
       </c>
@@ -11859,8 +11863,8 @@
       </c>
     </row>
     <row r="224" spans="1:4">
-      <c r="A224" s="13"/>
-      <c r="B224" s="13"/>
+      <c r="A224" s="12"/>
+      <c r="B224" s="12"/>
       <c r="C224" s="10">
         <v>500020038</v>
       </c>
@@ -11869,8 +11873,8 @@
       </c>
     </row>
     <row r="225" spans="1:4">
-      <c r="A225" s="13"/>
-      <c r="B225" s="13"/>
+      <c r="A225" s="12"/>
+      <c r="B225" s="12"/>
       <c r="C225" s="10">
         <v>500020062</v>
       </c>
@@ -11879,8 +11883,8 @@
       </c>
     </row>
     <row r="226" spans="1:4">
-      <c r="A226" s="13"/>
-      <c r="B226" s="13"/>
+      <c r="A226" s="12"/>
+      <c r="B226" s="12"/>
       <c r="C226" s="10">
         <v>500020065</v>
       </c>
@@ -11889,8 +11893,8 @@
       </c>
     </row>
     <row r="227" spans="1:4">
-      <c r="A227" s="13"/>
-      <c r="B227" s="13"/>
+      <c r="A227" s="12"/>
+      <c r="B227" s="12"/>
       <c r="C227" s="10">
         <v>500020070</v>
       </c>
@@ -11899,8 +11903,8 @@
       </c>
     </row>
     <row r="228" spans="1:4">
-      <c r="A228" s="13"/>
-      <c r="B228" s="13"/>
+      <c r="A228" s="12"/>
+      <c r="B228" s="12"/>
       <c r="C228" s="10">
         <v>502010001</v>
       </c>
@@ -11909,8 +11913,8 @@
       </c>
     </row>
     <row r="229" spans="1:4">
-      <c r="A229" s="13"/>
-      <c r="B229" s="13"/>
+      <c r="A229" s="12"/>
+      <c r="B229" s="12"/>
       <c r="C229" s="10">
         <v>503010001</v>
       </c>
@@ -11919,8 +11923,8 @@
       </c>
     </row>
     <row r="230" spans="1:4">
-      <c r="A230" s="13"/>
-      <c r="B230" s="13"/>
+      <c r="A230" s="12"/>
+      <c r="B230" s="12"/>
       <c r="C230" s="10">
         <v>503010011</v>
       </c>
@@ -11929,8 +11933,8 @@
       </c>
     </row>
     <row r="231" spans="1:4">
-      <c r="A231" s="13"/>
-      <c r="B231" s="13"/>
+      <c r="A231" s="12"/>
+      <c r="B231" s="12"/>
       <c r="C231" s="10">
         <v>503010012</v>
       </c>
@@ -11939,8 +11943,8 @@
       </c>
     </row>
     <row r="232" spans="1:4">
-      <c r="A232" s="13"/>
-      <c r="B232" s="13"/>
+      <c r="A232" s="12"/>
+      <c r="B232" s="12"/>
       <c r="C232" s="10">
         <v>504040001</v>
       </c>
@@ -11949,8 +11953,8 @@
       </c>
     </row>
     <row r="233" spans="1:4">
-      <c r="A233" s="13"/>
-      <c r="B233" s="13"/>
+      <c r="A233" s="12"/>
+      <c r="B233" s="12"/>
       <c r="C233" s="10">
         <v>504040002</v>
       </c>
@@ -11959,8 +11963,8 @@
       </c>
     </row>
     <row r="234" spans="1:4">
-      <c r="A234" s="13"/>
-      <c r="B234" s="13"/>
+      <c r="A234" s="12"/>
+      <c r="B234" s="12"/>
       <c r="C234" s="10">
         <v>504050001</v>
       </c>
@@ -11969,8 +11973,8 @@
       </c>
     </row>
     <row r="235" spans="1:4">
-      <c r="A235" s="13"/>
-      <c r="B235" s="13"/>
+      <c r="A235" s="12"/>
+      <c r="B235" s="12"/>
       <c r="C235" s="10">
         <v>504060001</v>
       </c>
@@ -11979,8 +11983,8 @@
       </c>
     </row>
     <row r="236" spans="1:4">
-      <c r="A236" s="13"/>
-      <c r="B236" s="13"/>
+      <c r="A236" s="12"/>
+      <c r="B236" s="12"/>
       <c r="C236" s="10">
         <v>504080001</v>
       </c>
@@ -11989,8 +11993,8 @@
       </c>
     </row>
     <row r="237" spans="1:4">
-      <c r="A237" s="13"/>
-      <c r="B237" s="13"/>
+      <c r="A237" s="12"/>
+      <c r="B237" s="12"/>
       <c r="C237" s="10">
         <v>504100001</v>
       </c>
@@ -11999,8 +12003,8 @@
       </c>
     </row>
     <row r="238" spans="1:4">
-      <c r="A238" s="13"/>
-      <c r="B238" s="13"/>
+      <c r="A238" s="12"/>
+      <c r="B238" s="12"/>
       <c r="C238" s="10">
         <v>504110001</v>
       </c>
@@ -12009,8 +12013,8 @@
       </c>
     </row>
     <row r="239" spans="1:4">
-      <c r="A239" s="13"/>
-      <c r="B239" s="13"/>
+      <c r="A239" s="12"/>
+      <c r="B239" s="12"/>
       <c r="C239" s="10">
         <v>504120002</v>
       </c>
@@ -12019,8 +12023,8 @@
       </c>
     </row>
     <row r="240" spans="1:4">
-      <c r="A240" s="13"/>
-      <c r="B240" s="13"/>
+      <c r="A240" s="12"/>
+      <c r="B240" s="12"/>
       <c r="C240" s="10">
         <v>504130001</v>
       </c>
@@ -12029,8 +12033,8 @@
       </c>
     </row>
     <row r="241" spans="1:4">
-      <c r="A241" s="13"/>
-      <c r="B241" s="13"/>
+      <c r="A241" s="12"/>
+      <c r="B241" s="12"/>
       <c r="C241" s="10">
         <v>705020001</v>
       </c>
@@ -12039,8 +12043,8 @@
       </c>
     </row>
     <row r="242" spans="1:4">
-      <c r="A242" s="13"/>
-      <c r="B242" s="13"/>
+      <c r="A242" s="12"/>
+      <c r="B242" s="12"/>
       <c r="C242" s="10">
         <v>500020017</v>
       </c>
@@ -12049,8 +12053,8 @@
       </c>
     </row>
     <row r="243" spans="1:4">
-      <c r="A243" s="13"/>
-      <c r="B243" s="13"/>
+      <c r="A243" s="12"/>
+      <c r="B243" s="12"/>
       <c r="C243" s="10">
         <v>505000000</v>
       </c>
@@ -12059,8 +12063,8 @@
       </c>
     </row>
     <row r="244" spans="1:4">
-      <c r="A244" s="13"/>
-      <c r="B244" s="13"/>
+      <c r="A244" s="12"/>
+      <c r="B244" s="12"/>
       <c r="C244" s="10">
         <v>505010001</v>
       </c>
@@ -12069,8 +12073,8 @@
       </c>
     </row>
     <row r="245" spans="1:4">
-      <c r="A245" s="13"/>
-      <c r="B245" s="13"/>
+      <c r="A245" s="12"/>
+      <c r="B245" s="12"/>
       <c r="C245" s="10">
         <v>505070001</v>
       </c>
@@ -12079,8 +12083,8 @@
       </c>
     </row>
     <row r="246" spans="1:4">
-      <c r="A246" s="13"/>
-      <c r="B246" s="13"/>
+      <c r="A246" s="12"/>
+      <c r="B246" s="12"/>
       <c r="C246" s="10">
         <v>600220001</v>
       </c>
@@ -12089,8 +12093,8 @@
       </c>
     </row>
     <row r="247" spans="1:4">
-      <c r="A247" s="13"/>
-      <c r="B247" s="13"/>
+      <c r="A247" s="12"/>
+      <c r="B247" s="12"/>
       <c r="C247" s="10">
         <v>600220002</v>
       </c>
@@ -12099,8 +12103,8 @@
       </c>
     </row>
     <row r="248" spans="1:4">
-      <c r="A248" s="13"/>
-      <c r="B248" s="13"/>
+      <c r="A248" s="12"/>
+      <c r="B248" s="12"/>
       <c r="C248" s="10">
         <v>600220003</v>
       </c>
@@ -12109,8 +12113,8 @@
       </c>
     </row>
     <row r="249" spans="1:4">
-      <c r="A249" s="13"/>
-      <c r="B249" s="13"/>
+      <c r="A249" s="12"/>
+      <c r="B249" s="12"/>
       <c r="C249" s="10">
         <v>600220004</v>
       </c>
@@ -12119,8 +12123,8 @@
       </c>
     </row>
     <row r="250" spans="1:4">
-      <c r="A250" s="13"/>
-      <c r="B250" s="13"/>
+      <c r="A250" s="12"/>
+      <c r="B250" s="12"/>
       <c r="C250" s="10">
         <v>600220005</v>
       </c>
@@ -12129,8 +12133,8 @@
       </c>
     </row>
     <row r="251" spans="1:4">
-      <c r="A251" s="13"/>
-      <c r="B251" s="13"/>
+      <c r="A251" s="12"/>
+      <c r="B251" s="12"/>
       <c r="C251" s="10">
         <v>600220006</v>
       </c>
@@ -12139,8 +12143,8 @@
       </c>
     </row>
     <row r="252" spans="1:4">
-      <c r="A252" s="13"/>
-      <c r="B252" s="13"/>
+      <c r="A252" s="12"/>
+      <c r="B252" s="12"/>
       <c r="C252" s="10">
         <v>600220009</v>
       </c>
@@ -12149,8 +12153,8 @@
       </c>
     </row>
     <row r="253" spans="1:4">
-      <c r="A253" s="13"/>
-      <c r="B253" s="13"/>
+      <c r="A253" s="12"/>
+      <c r="B253" s="12"/>
       <c r="C253" s="10">
         <v>600220010</v>
       </c>
@@ -12159,8 +12163,8 @@
       </c>
     </row>
     <row r="254" spans="1:4">
-      <c r="A254" s="13"/>
-      <c r="B254" s="13"/>
+      <c r="A254" s="12"/>
+      <c r="B254" s="12"/>
       <c r="C254" s="10">
         <v>600230001</v>
       </c>
@@ -12169,8 +12173,8 @@
       </c>
     </row>
     <row r="255" spans="1:4">
-      <c r="A255" s="13"/>
-      <c r="B255" s="13"/>
+      <c r="A255" s="12"/>
+      <c r="B255" s="12"/>
       <c r="C255" s="10">
         <v>600230002</v>
       </c>
@@ -12179,8 +12183,8 @@
       </c>
     </row>
     <row r="256" spans="1:4">
-      <c r="A256" s="13"/>
-      <c r="B256" s="13"/>
+      <c r="A256" s="12"/>
+      <c r="B256" s="12"/>
       <c r="C256" s="10">
         <v>600230003</v>
       </c>
@@ -12189,8 +12193,8 @@
       </c>
     </row>
     <row r="257" spans="1:4">
-      <c r="A257" s="13"/>
-      <c r="B257" s="13"/>
+      <c r="A257" s="12"/>
+      <c r="B257" s="12"/>
       <c r="C257" s="10">
         <v>600230004</v>
       </c>
@@ -12199,8 +12203,8 @@
       </c>
     </row>
     <row r="258" spans="1:4">
-      <c r="A258" s="13"/>
-      <c r="B258" s="13"/>
+      <c r="A258" s="12"/>
+      <c r="B258" s="12"/>
       <c r="C258" s="10">
         <v>600230005</v>
       </c>
@@ -12209,8 +12213,8 @@
       </c>
     </row>
     <row r="259" spans="1:4">
-      <c r="A259" s="13"/>
-      <c r="B259" s="13"/>
+      <c r="A259" s="12"/>
+      <c r="B259" s="12"/>
       <c r="C259" s="10">
         <v>600230006</v>
       </c>
@@ -12219,8 +12223,8 @@
       </c>
     </row>
     <row r="260" spans="1:4">
-      <c r="A260" s="13"/>
-      <c r="B260" s="13"/>
+      <c r="A260" s="12"/>
+      <c r="B260" s="12"/>
       <c r="C260" s="10">
         <v>600240001</v>
       </c>
@@ -12229,8 +12233,8 @@
       </c>
     </row>
     <row r="261" spans="1:4">
-      <c r="A261" s="13"/>
-      <c r="B261" s="13"/>
+      <c r="A261" s="12"/>
+      <c r="B261" s="12"/>
       <c r="C261" s="10">
         <v>601060001</v>
       </c>
@@ -12239,8 +12243,8 @@
       </c>
     </row>
     <row r="262" spans="1:4">
-      <c r="A262" s="13"/>
-      <c r="B262" s="13"/>
+      <c r="A262" s="12"/>
+      <c r="B262" s="12"/>
       <c r="C262" s="10">
         <v>602010001</v>
       </c>
@@ -12249,8 +12253,8 @@
       </c>
     </row>
     <row r="263" spans="1:4">
-      <c r="A263" s="13"/>
-      <c r="B263" s="13"/>
+      <c r="A263" s="12"/>
+      <c r="B263" s="12"/>
       <c r="C263" s="10">
         <v>400010001</v>
       </c>
@@ -12259,8 +12263,8 @@
       </c>
     </row>
     <row r="264" spans="1:4">
-      <c r="A264" s="13"/>
-      <c r="B264" s="13"/>
+      <c r="A264" s="12"/>
+      <c r="B264" s="12"/>
       <c r="C264" s="10">
         <v>400010005</v>
       </c>
@@ -12269,8 +12273,8 @@
       </c>
     </row>
     <row r="265" spans="1:4">
-      <c r="A265" s="13"/>
-      <c r="B265" s="13"/>
+      <c r="A265" s="12"/>
+      <c r="B265" s="12"/>
       <c r="C265" s="10">
         <v>400020001</v>
       </c>
@@ -12279,8 +12283,8 @@
       </c>
     </row>
     <row r="266" spans="1:4">
-      <c r="A266" s="13"/>
-      <c r="B266" s="13"/>
+      <c r="A266" s="12"/>
+      <c r="B266" s="12"/>
       <c r="C266" s="10">
         <v>400020012</v>
       </c>
@@ -12289,8 +12293,8 @@
       </c>
     </row>
     <row r="267" spans="1:4">
-      <c r="A267" s="13"/>
-      <c r="B267" s="13"/>
+      <c r="A267" s="12"/>
+      <c r="B267" s="12"/>
       <c r="C267" s="10">
         <v>400030001</v>
       </c>
@@ -12299,8 +12303,8 @@
       </c>
     </row>
     <row r="268" spans="1:4">
-      <c r="A268" s="13"/>
-      <c r="B268" s="13"/>
+      <c r="A268" s="12"/>
+      <c r="B268" s="12"/>
       <c r="C268" s="10">
         <v>400030002</v>
       </c>
@@ -12309,8 +12313,8 @@
       </c>
     </row>
     <row r="269" spans="1:4">
-      <c r="A269" s="13"/>
-      <c r="B269" s="13"/>
+      <c r="A269" s="12"/>
+      <c r="B269" s="12"/>
       <c r="C269" s="10">
         <v>400030003</v>
       </c>
@@ -12319,8 +12323,8 @@
       </c>
     </row>
     <row r="270" spans="1:4">
-      <c r="A270" s="13"/>
-      <c r="B270" s="13"/>
+      <c r="A270" s="12"/>
+      <c r="B270" s="12"/>
       <c r="C270" s="10">
         <v>400030005</v>
       </c>
@@ -12329,8 +12333,8 @@
       </c>
     </row>
     <row r="271" spans="1:4">
-      <c r="A271" s="13"/>
-      <c r="B271" s="13"/>
+      <c r="A271" s="12"/>
+      <c r="B271" s="12"/>
       <c r="C271" s="10">
         <v>400040001</v>
       </c>
@@ -12339,8 +12343,8 @@
       </c>
     </row>
     <row r="272" spans="1:4">
-      <c r="A272" s="13"/>
-      <c r="B272" s="13"/>
+      <c r="A272" s="12"/>
+      <c r="B272" s="12"/>
       <c r="C272" s="10">
         <v>400040002</v>
       </c>
@@ -12349,8 +12353,8 @@
       </c>
     </row>
     <row r="273" spans="1:4">
-      <c r="A273" s="13"/>
-      <c r="B273" s="13"/>
+      <c r="A273" s="12"/>
+      <c r="B273" s="12"/>
       <c r="C273" s="10">
         <v>400040003</v>
       </c>
@@ -12359,8 +12363,8 @@
       </c>
     </row>
     <row r="274" spans="1:4">
-      <c r="A274" s="13"/>
-      <c r="B274" s="13"/>
+      <c r="A274" s="12"/>
+      <c r="B274" s="12"/>
       <c r="C274" s="10">
         <v>400040006</v>
       </c>
@@ -12369,8 +12373,8 @@
       </c>
     </row>
     <row r="275" spans="1:4">
-      <c r="A275" s="13"/>
-      <c r="B275" s="13"/>
+      <c r="A275" s="12"/>
+      <c r="B275" s="12"/>
       <c r="C275" s="10">
         <v>400060001</v>
       </c>
@@ -12379,8 +12383,8 @@
       </c>
     </row>
     <row r="276" spans="1:4">
-      <c r="A276" s="13"/>
-      <c r="B276" s="13"/>
+      <c r="A276" s="12"/>
+      <c r="B276" s="12"/>
       <c r="C276" s="10">
         <v>400060002</v>
       </c>
@@ -12389,8 +12393,8 @@
       </c>
     </row>
     <row r="277" spans="1:4">
-      <c r="A277" s="13"/>
-      <c r="B277" s="13"/>
+      <c r="A277" s="12"/>
+      <c r="B277" s="12"/>
       <c r="C277" s="10">
         <v>400060005</v>
       </c>
@@ -12399,8 +12403,8 @@
       </c>
     </row>
     <row r="278" spans="1:4">
-      <c r="A278" s="13"/>
-      <c r="B278" s="13"/>
+      <c r="A278" s="12"/>
+      <c r="B278" s="12"/>
       <c r="C278" s="10">
         <v>400060004</v>
       </c>
@@ -12409,8 +12413,8 @@
       </c>
     </row>
     <row r="279" spans="1:4">
-      <c r="A279" s="13"/>
-      <c r="B279" s="13"/>
+      <c r="A279" s="12"/>
+      <c r="B279" s="12"/>
       <c r="C279" s="10">
         <v>400061001</v>
       </c>
@@ -12419,8 +12423,8 @@
       </c>
     </row>
     <row r="280" spans="1:4">
-      <c r="A280" s="13"/>
-      <c r="B280" s="13"/>
+      <c r="A280" s="12"/>
+      <c r="B280" s="12"/>
       <c r="C280" s="10">
         <v>400070003</v>
       </c>
@@ -12429,8 +12433,8 @@
       </c>
     </row>
     <row r="281" spans="1:4">
-      <c r="A281" s="13"/>
-      <c r="B281" s="13"/>
+      <c r="A281" s="12"/>
+      <c r="B281" s="12"/>
       <c r="C281" s="10">
         <v>401010003</v>
       </c>
@@ -12439,8 +12443,8 @@
       </c>
     </row>
     <row r="282" spans="1:4">
-      <c r="A282" s="13"/>
-      <c r="B282" s="13"/>
+      <c r="A282" s="12"/>
+      <c r="B282" s="12"/>
       <c r="C282" s="10">
         <v>401010005</v>
       </c>
@@ -12449,8 +12453,8 @@
       </c>
     </row>
     <row r="283" spans="1:4">
-      <c r="A283" s="13"/>
-      <c r="B283" s="13"/>
+      <c r="A283" s="12"/>
+      <c r="B283" s="12"/>
       <c r="C283" s="10">
         <v>401020001</v>
       </c>
@@ -12459,8 +12463,8 @@
       </c>
     </row>
     <row r="284" spans="1:4">
-      <c r="A284" s="13"/>
-      <c r="B284" s="13"/>
+      <c r="A284" s="12"/>
+      <c r="B284" s="12"/>
       <c r="C284" s="10">
         <v>401020012</v>
       </c>
@@ -12469,8 +12473,8 @@
       </c>
     </row>
     <row r="285" spans="1:4">
-      <c r="A285" s="13"/>
-      <c r="B285" s="13"/>
+      <c r="A285" s="12"/>
+      <c r="B285" s="12"/>
       <c r="C285" s="10">
         <v>401010001</v>
       </c>
@@ -12479,8 +12483,8 @@
       </c>
     </row>
     <row r="286" spans="1:4">
-      <c r="A286" s="13"/>
-      <c r="B286" s="13"/>
+      <c r="A286" s="12"/>
+      <c r="B286" s="12"/>
       <c r="C286" s="10">
         <v>401030001</v>
       </c>
@@ -12489,8 +12493,8 @@
       </c>
     </row>
     <row r="287" spans="1:4">
-      <c r="A287" s="13"/>
-      <c r="B287" s="13"/>
+      <c r="A287" s="12"/>
+      <c r="B287" s="12"/>
       <c r="C287" s="10">
         <v>401030002</v>
       </c>
@@ -12499,8 +12503,8 @@
       </c>
     </row>
     <row r="288" spans="1:4">
-      <c r="A288" s="13"/>
-      <c r="B288" s="13"/>
+      <c r="A288" s="12"/>
+      <c r="B288" s="12"/>
       <c r="C288" s="10">
         <v>401030005</v>
       </c>
@@ -12509,8 +12513,8 @@
       </c>
     </row>
     <row r="289" spans="1:4">
-      <c r="A289" s="13"/>
-      <c r="B289" s="13"/>
+      <c r="A289" s="12"/>
+      <c r="B289" s="12"/>
       <c r="C289" s="10">
         <v>400030007</v>
       </c>
@@ -12519,8 +12523,8 @@
       </c>
     </row>
     <row r="290" spans="1:4">
-      <c r="A290" s="13"/>
-      <c r="B290" s="13"/>
+      <c r="A290" s="12"/>
+      <c r="B290" s="12"/>
       <c r="C290" s="10">
         <v>400030009</v>
       </c>
@@ -12529,8 +12533,8 @@
       </c>
     </row>
     <row r="291" spans="1:4">
-      <c r="A291" s="13"/>
-      <c r="B291" s="13"/>
+      <c r="A291" s="12"/>
+      <c r="B291" s="12"/>
       <c r="C291" s="10">
         <v>401040002</v>
       </c>
@@ -12539,8 +12543,8 @@
       </c>
     </row>
     <row r="292" spans="1:4">
-      <c r="A292" s="13"/>
-      <c r="B292" s="13"/>
+      <c r="A292" s="12"/>
+      <c r="B292" s="12"/>
       <c r="C292" s="10">
         <v>401040003</v>
       </c>
@@ -12549,8 +12553,8 @@
       </c>
     </row>
     <row r="293" spans="1:4">
-      <c r="A293" s="13"/>
-      <c r="B293" s="13"/>
+      <c r="A293" s="12"/>
+      <c r="B293" s="12"/>
       <c r="C293" s="10">
         <v>401040006</v>
       </c>
@@ -12559,8 +12563,8 @@
       </c>
     </row>
     <row r="294" spans="1:4">
-      <c r="A294" s="13"/>
-      <c r="B294" s="13"/>
+      <c r="A294" s="12"/>
+      <c r="B294" s="12"/>
       <c r="C294" s="10">
         <v>401040004</v>
       </c>
@@ -12569,8 +12573,8 @@
       </c>
     </row>
     <row r="295" spans="1:4">
-      <c r="A295" s="13"/>
-      <c r="B295" s="13"/>
+      <c r="A295" s="12"/>
+      <c r="B295" s="12"/>
       <c r="C295" s="10">
         <v>402030002</v>
       </c>
@@ -12579,8 +12583,8 @@
       </c>
     </row>
     <row r="296" spans="1:4">
-      <c r="A296" s="13"/>
-      <c r="B296" s="13"/>
+      <c r="A296" s="12"/>
+      <c r="B296" s="12"/>
       <c r="C296" s="10">
         <v>402030003</v>
       </c>
@@ -12589,8 +12593,8 @@
       </c>
     </row>
     <row r="297" spans="1:4">
-      <c r="A297" s="13"/>
-      <c r="B297" s="13"/>
+      <c r="A297" s="12"/>
+      <c r="B297" s="12"/>
       <c r="C297" s="10">
         <v>402030005</v>
       </c>
@@ -12599,8 +12603,8 @@
       </c>
     </row>
     <row r="298" spans="1:4">
-      <c r="A298" s="13"/>
-      <c r="B298" s="13"/>
+      <c r="A298" s="12"/>
+      <c r="B298" s="12"/>
       <c r="C298" s="10">
         <v>403030005</v>
       </c>
@@ -12609,8 +12613,8 @@
       </c>
     </row>
     <row r="299" spans="1:4">
-      <c r="A299" s="13"/>
-      <c r="B299" s="13"/>
+      <c r="A299" s="12"/>
+      <c r="B299" s="12"/>
       <c r="C299" s="10">
         <v>402040001</v>
       </c>
@@ -12619,8 +12623,8 @@
       </c>
     </row>
     <row r="300" spans="1:4">
-      <c r="A300" s="13"/>
-      <c r="B300" s="13"/>
+      <c r="A300" s="12"/>
+      <c r="B300" s="12"/>
       <c r="C300" s="10">
         <v>402040002</v>
       </c>
@@ -12629,8 +12633,8 @@
       </c>
     </row>
     <row r="301" spans="1:4">
-      <c r="A301" s="13"/>
-      <c r="B301" s="13"/>
+      <c r="A301" s="12"/>
+      <c r="B301" s="12"/>
       <c r="C301" s="10">
         <v>403040002</v>
       </c>
@@ -12639,8 +12643,8 @@
       </c>
     </row>
     <row r="302" spans="1:4">
-      <c r="A302" s="13"/>
-      <c r="B302" s="13"/>
+      <c r="A302" s="12"/>
+      <c r="B302" s="12"/>
       <c r="C302" s="10">
         <v>408010001</v>
       </c>
@@ -12649,8 +12653,8 @@
       </c>
     </row>
     <row r="303" spans="1:4">
-      <c r="A303" s="13"/>
-      <c r="B303" s="13"/>
+      <c r="A303" s="12"/>
+      <c r="B303" s="12"/>
       <c r="C303" s="10">
         <v>404020001</v>
       </c>
@@ -12659,8 +12663,8 @@
       </c>
     </row>
     <row r="304" spans="1:4">
-      <c r="A304" s="13"/>
-      <c r="B304" s="13"/>
+      <c r="A304" s="12"/>
+      <c r="B304" s="12"/>
       <c r="C304" s="10">
         <v>601070001</v>
       </c>
@@ -12669,8 +12673,8 @@
       </c>
     </row>
     <row r="305" spans="1:4">
-      <c r="A305" s="13"/>
-      <c r="B305" s="13"/>
+      <c r="A305" s="12"/>
+      <c r="B305" s="12"/>
       <c r="C305" s="10">
         <v>705190001</v>
       </c>
@@ -12679,8 +12683,8 @@
       </c>
     </row>
     <row r="306" spans="1:4">
-      <c r="A306" s="13"/>
-      <c r="B306" s="13"/>
+      <c r="A306" s="12"/>
+      <c r="B306" s="12"/>
       <c r="C306" s="10">
         <v>705190002</v>
       </c>
@@ -12689,8 +12693,8 @@
       </c>
     </row>
     <row r="307" spans="1:4">
-      <c r="A307" s="12"/>
-      <c r="B307" s="12"/>
+      <c r="A307" s="13"/>
+      <c r="B307" s="13"/>
       <c r="C307" s="10">
         <v>705190003</v>
       </c>
@@ -12729,8 +12733,8 @@
       </c>
     </row>
     <row r="311" spans="1:4">
-      <c r="A311" s="12"/>
-      <c r="B311" s="12"/>
+      <c r="A311" s="13"/>
+      <c r="B311" s="13"/>
       <c r="C311" s="10">
         <v>503010012</v>
       </c>
@@ -12856,8 +12860,27 @@
       <c r="C325" s="10"/>
       <c r="D325" s="10"/>
     </row>
+    <row r="326" spans="1:4">
+      <c r="A326" s="14" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B326" t="s">
+        <v>992</v>
+      </c>
+      <c r="C326">
+        <v>704020013</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A310:A311"/>
+    <mergeCell ref="B310:B311"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="B104:B106"/>
+    <mergeCell ref="A110:A117"/>
+    <mergeCell ref="B110:B117"/>
+    <mergeCell ref="A123:A307"/>
+    <mergeCell ref="B123:B307"/>
     <mergeCell ref="A55:A61"/>
     <mergeCell ref="B55:B61"/>
     <mergeCell ref="A6:A15"/>
@@ -12872,14 +12895,6 @@
     <mergeCell ref="B71:B73"/>
     <mergeCell ref="A63:A65"/>
     <mergeCell ref="B63:B65"/>
-    <mergeCell ref="A310:A311"/>
-    <mergeCell ref="B310:B311"/>
-    <mergeCell ref="A104:A106"/>
-    <mergeCell ref="B104:B106"/>
-    <mergeCell ref="A110:A117"/>
-    <mergeCell ref="B110:B117"/>
-    <mergeCell ref="A123:A307"/>
-    <mergeCell ref="B123:B307"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="93" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -12890,7 +12905,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95A47B7-54E9-4BF0-AF8B-C1463C6C3C2D}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
